--- a/src/test/java/ru/fds/tavrzcms3/testdata/insurance_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/insurance_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>pledge_subject_id: 0</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +463,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>38478</v>
+      </c>
       <c r="E3" s="1">
         <v>39239</v>
       </c>
@@ -474,6 +477,9 @@
       </c>
       <c r="H3" t="s">
         <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -491,6 +497,18 @@
       </c>
       <c r="E4" s="1">
         <v>39636</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>39271</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
